--- a/wcsm8seleniumproject/data/ActitimeTestData.xlsx
+++ b/wcsm8seleniumproject/data/ActitimeTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16590" windowHeight="4290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17370" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="invalidcreds" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
@@ -459,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
